--- a/tests/configuration_files/data/examples/test1.xlsx
+++ b/tests/configuration_files/data/examples/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uabdumum\Desktop\projects\xl2pgtable\tests\configuration_files\data\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4714C05-DD18-400C-B69D-5E03F894AFF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB95147-F4BC-4217-BF27-13167B142FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{D9868BB2-A8BC-4D2A-A895-5FA9C364E9EC}"/>
+    <workbookView xWindow="6552" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{D9868BB2-A8BC-4D2A-A895-5FA9C364E9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>qwe</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>12.04.2019 4:23:01</t>
+  </si>
+  <si>
+    <t>SLA</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C710253-4286-4482-B0C3-0AD785F9166B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,9 +428,10 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -435,8 +441,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +455,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="3">
+        <v>1.7017708333333332</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -457,13 +469,19 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="3">
+        <v>1.3333333333333333</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.7919328703703705</v>
       </c>
     </row>
   </sheetData>
